--- a/themes/hexo-theme-matery-master/source/games/life/data/specialthanks-afd.xlsx
+++ b/themes/hexo-theme-matery-master/source/games/life/data/specialthanks-afd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432123CF-23A5-4A7E-BD8A-CE4E8D292F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC18B61-E844-4E8B-952C-C0850BACC964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="688">
   <si>
     <t>group</t>
   </si>
@@ -2222,6 +2222,334 @@
   </si>
   <si>
     <t>披坚执锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻麓-Cervoserĉo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是scp-114514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xzny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼鳃q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星幻Larry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天门仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oscar you</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤丸嘉人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦絮Sigrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>px5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eynaitty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我试着感受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硫酸铜水合物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力的水哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看我真挚的笑容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seka_L6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kotoha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达可达可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jjxxa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妄人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythagodzilla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太白山野猪之光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劝飞光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛定谔的猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愚蠢的欧豆豆哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙二柱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓月长歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逸云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么可爱当然是__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉然我真的好喜欢你啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楪之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山中迷路的小勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月幵大fw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱saber与魔人archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路痴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又找不到了qwq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你们为世界带来一些欢乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearMoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳烤的咕咕蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞠培雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要内卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对不是楠桐的仓妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无川手页的说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靈間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑牙牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨曦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0_fds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.71 8281 8284 5904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MXS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迈阿密牛逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JerryJiao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙无芒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳伯壹仠肆佰伍拾叁世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶龙苏生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mescaline茗零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希希希土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食光者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻谷之骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七茗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harmony_Matrix.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪喵喵喵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油呀小德，期待你的游戏大放异彩的那一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i∈△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐味的鸽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子夜微雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The_WhiteDragon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2562,21 +2890,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="A552" sqref="A552:A560"/>
+    <sheetView tabSelected="1" topLeftCell="A597" workbookViewId="0">
+      <selection activeCell="C637" sqref="C637"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2918,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2601,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2609,7 +2937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2617,7 +2945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2625,7 +2953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2633,7 +2961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2641,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2649,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2657,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2665,7 +2993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2673,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -2681,7 +3009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -2689,7 +3017,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2700,7 +3028,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -2708,7 +3036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2716,7 +3044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2724,7 +3052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -2732,7 +3060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -2743,7 +3071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -2751,7 +3079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -2759,7 +3087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -2767,7 +3095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -2775,7 +3103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -2783,7 +3111,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -2791,7 +3119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -2799,7 +3127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -2807,7 +3135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -2815,7 +3143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -2826,7 +3154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -2834,7 +3162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2842,7 +3170,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -2850,7 +3178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -2858,7 +3186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -2866,7 +3194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -2874,7 +3202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -2882,7 +3210,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -2890,7 +3218,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -2898,7 +3226,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2906,7 +3234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -2914,7 +3242,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2922,7 +3250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -2930,7 +3258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -2938,7 +3266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2946,7 +3274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2954,7 +3282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2962,7 +3290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2970,7 +3298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2978,7 +3306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -2986,7 +3314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2994,7 +3322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -3002,7 +3330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -3010,7 +3338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -3018,7 +3346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -3026,7 +3354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -3034,7 +3362,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -3042,7 +3370,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -3050,7 +3378,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -3058,7 +3386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -3066,7 +3394,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -3074,7 +3402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -3082,7 +3410,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -3090,7 +3418,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -3098,7 +3426,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -3106,7 +3434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -3114,7 +3442,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -3122,7 +3450,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -3130,7 +3458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -3138,7 +3466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -3146,7 +3474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -3154,7 +3482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3162,7 +3490,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3170,7 +3498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3178,7 +3506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -3186,7 +3514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -3194,7 +3522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -3205,7 +3533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -3213,7 +3541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3221,7 +3549,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -3229,7 +3557,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -3237,7 +3565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -3245,7 +3573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -3256,7 +3584,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -3264,7 +3592,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -3272,7 +3600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -3280,7 +3608,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -3288,7 +3616,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -3296,7 +3624,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -3304,7 +3632,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -3312,7 +3640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -3320,7 +3648,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -3328,7 +3656,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -3336,7 +3664,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -3344,7 +3672,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -3352,7 +3680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -3360,7 +3688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -3368,7 +3696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -3376,15 +3704,18 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -3392,7 +3723,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -3400,7 +3731,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -3408,7 +3739,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -3416,7 +3747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -3424,7 +3755,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -3432,7 +3763,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -3440,7 +3771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -3448,7 +3779,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -3456,7 +3787,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -3464,7 +3795,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -3472,7 +3803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>1</v>
       </c>
@@ -3483,7 +3814,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1</v>
       </c>
@@ -3494,7 +3825,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -3502,7 +3833,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -3510,7 +3841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -3518,7 +3849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -3526,7 +3857,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -3534,7 +3865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -3542,7 +3873,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -3550,7 +3881,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -3558,7 +3889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -3566,7 +3897,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -3577,7 +3908,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -3585,7 +3916,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -3593,7 +3924,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -3601,7 +3932,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -3609,7 +3940,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -3617,7 +3948,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -3625,7 +3956,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -3633,7 +3964,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -3641,7 +3972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -3649,7 +3980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -3657,7 +3988,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -3665,7 +3996,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -3673,7 +4004,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -3681,7 +4012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -3689,7 +4020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -3697,7 +4028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -3705,7 +4036,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -3713,7 +4044,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -3721,7 +4052,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -3729,7 +4060,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -3737,7 +4068,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -3748,7 +4079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -3756,7 +4087,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -3764,7 +4095,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -3772,7 +4103,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -3780,7 +4111,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -3788,7 +4119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -3796,7 +4127,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -3804,7 +4135,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -3812,7 +4143,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -3820,7 +4151,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -3828,7 +4159,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -3836,7 +4167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -3844,7 +4175,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -3852,7 +4183,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -3860,7 +4191,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -3868,7 +4199,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -3876,7 +4207,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -3884,7 +4215,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -3892,7 +4223,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -3900,7 +4231,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -3908,7 +4239,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -3919,7 +4250,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -3927,7 +4258,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -3935,7 +4266,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -3943,7 +4274,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>1</v>
       </c>
@@ -3954,7 +4285,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1</v>
       </c>
@@ -3965,7 +4296,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -3976,7 +4307,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -3984,7 +4315,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -3992,7 +4323,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -4000,7 +4331,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -4008,7 +4339,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -4016,7 +4347,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -4024,7 +4355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -4032,7 +4363,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -4040,7 +4371,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -4048,7 +4379,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -4056,7 +4387,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -4064,7 +4395,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -4072,7 +4403,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -4080,7 +4411,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -4088,7 +4419,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -4096,7 +4427,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -4104,7 +4435,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -4112,7 +4443,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -4120,7 +4451,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -4128,7 +4459,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -4136,7 +4467,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>1</v>
       </c>
@@ -4147,7 +4478,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -4155,7 +4486,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -4163,7 +4494,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -4171,7 +4502,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -4179,7 +4510,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -4187,7 +4518,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -4195,7 +4526,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -4203,7 +4534,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -4211,7 +4542,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -4219,7 +4550,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -4227,7 +4558,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -4235,7 +4566,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -4243,7 +4574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -4251,7 +4582,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -4259,7 +4590,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -4267,7 +4598,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -4275,7 +4606,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -4283,7 +4614,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -4291,7 +4622,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -4299,7 +4630,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -4307,7 +4638,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -4315,7 +4646,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -4323,7 +4654,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -4334,7 +4665,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -4342,7 +4673,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -4353,7 +4684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -4362,7 +4693,7 @@
       </c>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -4370,7 +4701,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -4378,7 +4709,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -4386,7 +4717,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -4394,7 +4725,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -4402,7 +4733,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -4410,7 +4741,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -4418,7 +4749,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -4426,7 +4757,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -4434,7 +4765,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>1</v>
       </c>
@@ -4445,7 +4776,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -4453,7 +4784,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -4461,7 +4792,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -4469,7 +4800,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -4477,7 +4808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -4485,7 +4816,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>2</v>
       </c>
@@ -4493,7 +4824,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>2</v>
       </c>
@@ -4501,7 +4832,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -4509,7 +4840,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -4517,7 +4848,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>2</v>
       </c>
@@ -4525,7 +4856,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>2</v>
       </c>
@@ -4533,7 +4864,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>2</v>
       </c>
@@ -4541,7 +4872,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>2</v>
       </c>
@@ -4549,7 +4880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -4557,7 +4888,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>1</v>
       </c>
@@ -4568,7 +4899,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>2</v>
       </c>
@@ -4576,7 +4907,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>2</v>
       </c>
@@ -4584,7 +4915,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>2</v>
       </c>
@@ -4592,7 +4923,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>2</v>
       </c>
@@ -4600,7 +4931,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>2</v>
       </c>
@@ -4608,7 +4939,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>2</v>
       </c>
@@ -4616,7 +4947,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>2</v>
       </c>
@@ -4624,7 +4955,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>2</v>
       </c>
@@ -4632,7 +4963,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>2</v>
       </c>
@@ -4640,7 +4971,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>2</v>
       </c>
@@ -4648,7 +4979,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>1</v>
       </c>
@@ -4659,7 +4990,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>2</v>
       </c>
@@ -4667,7 +4998,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>2</v>
       </c>
@@ -4675,7 +5006,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>2</v>
       </c>
@@ -4683,7 +5014,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>2</v>
       </c>
@@ -4691,7 +5022,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>2</v>
       </c>
@@ -4699,7 +5030,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>2</v>
       </c>
@@ -4707,7 +5038,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>2</v>
       </c>
@@ -4715,7 +5046,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -4726,7 +5057,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>2</v>
       </c>
@@ -4734,7 +5065,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>2</v>
       </c>
@@ -4742,7 +5073,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -4753,7 +5084,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>2</v>
       </c>
@@ -4761,7 +5092,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>2</v>
       </c>
@@ -4769,7 +5100,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>2</v>
       </c>
@@ -4777,7 +5108,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>2</v>
       </c>
@@ -4785,7 +5116,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -4793,7 +5124,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>2</v>
       </c>
@@ -4801,7 +5132,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>2</v>
       </c>
@@ -4809,7 +5140,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>2</v>
       </c>
@@ -4817,7 +5148,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>2</v>
       </c>
@@ -4825,7 +5156,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>2</v>
       </c>
@@ -4833,7 +5164,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>2</v>
       </c>
@@ -4841,7 +5172,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>2</v>
       </c>
@@ -4849,7 +5180,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>2</v>
       </c>
@@ -4857,7 +5188,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>2</v>
       </c>
@@ -4865,7 +5196,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>2</v>
       </c>
@@ -4873,7 +5204,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>2</v>
       </c>
@@ -4881,7 +5212,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>2</v>
       </c>
@@ -4889,7 +5220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>2</v>
       </c>
@@ -4897,7 +5228,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>2</v>
       </c>
@@ -4905,7 +5236,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>2</v>
       </c>
@@ -4913,7 +5244,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>2</v>
       </c>
@@ -4921,7 +5252,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>1</v>
       </c>
@@ -4932,7 +5263,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>2</v>
       </c>
@@ -4940,7 +5271,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>2</v>
       </c>
@@ -4948,7 +5279,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>2</v>
       </c>
@@ -4956,7 +5287,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>2</v>
       </c>
@@ -4964,7 +5295,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>2</v>
       </c>
@@ -4972,7 +5303,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>2</v>
       </c>
@@ -4980,7 +5311,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>2</v>
       </c>
@@ -4988,7 +5319,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>2</v>
       </c>
@@ -4996,7 +5327,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>2</v>
       </c>
@@ -5004,7 +5335,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>2</v>
       </c>
@@ -5012,7 +5343,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>2</v>
       </c>
@@ -5020,7 +5351,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>2</v>
       </c>
@@ -5028,7 +5359,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>2</v>
       </c>
@@ -5036,7 +5367,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>2</v>
       </c>
@@ -5044,7 +5375,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>2</v>
       </c>
@@ -5052,7 +5383,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>1</v>
       </c>
@@ -5063,7 +5394,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>2</v>
       </c>
@@ -5071,7 +5402,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>2</v>
       </c>
@@ -5079,7 +5410,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>2</v>
       </c>
@@ -5087,7 +5418,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>2</v>
       </c>
@@ -5095,7 +5426,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>2</v>
       </c>
@@ -5103,7 +5434,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>2</v>
       </c>
@@ -5111,7 +5442,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>2</v>
       </c>
@@ -5119,7 +5450,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>2</v>
       </c>
@@ -5127,7 +5458,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -5135,7 +5466,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>2</v>
       </c>
@@ -5143,7 +5474,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>2</v>
       </c>
@@ -5151,7 +5482,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>2</v>
       </c>
@@ -5159,7 +5490,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>2</v>
       </c>
@@ -5167,7 +5498,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>2</v>
       </c>
@@ -5175,7 +5506,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>2</v>
       </c>
@@ -5183,7 +5514,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>2</v>
       </c>
@@ -5191,7 +5522,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>2</v>
       </c>
@@ -5199,7 +5530,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>2</v>
       </c>
@@ -5207,7 +5538,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>2</v>
       </c>
@@ -5215,7 +5546,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>2</v>
       </c>
@@ -5223,7 +5554,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>2</v>
       </c>
@@ -5231,7 +5562,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>2</v>
       </c>
@@ -5239,7 +5570,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>2</v>
       </c>
@@ -5247,7 +5578,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>2</v>
       </c>
@@ -5255,7 +5586,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>2</v>
       </c>
@@ -5263,7 +5594,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>2</v>
       </c>
@@ -5271,7 +5602,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>2</v>
       </c>
@@ -5279,7 +5610,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>2</v>
       </c>
@@ -5287,7 +5618,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>2</v>
       </c>
@@ -5295,7 +5626,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>2</v>
       </c>
@@ -5303,7 +5634,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>2</v>
       </c>
@@ -5311,7 +5642,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>2</v>
       </c>
@@ -5319,7 +5650,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>2</v>
       </c>
@@ -5327,7 +5658,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>2</v>
       </c>
@@ -5335,7 +5666,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>2</v>
       </c>
@@ -5343,7 +5674,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>2</v>
       </c>
@@ -5351,7 +5682,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>2</v>
       </c>
@@ -5359,7 +5690,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>2</v>
       </c>
@@ -5367,7 +5698,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>2</v>
       </c>
@@ -5375,7 +5706,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>2</v>
       </c>
@@ -5383,7 +5714,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>1</v>
       </c>
@@ -5394,7 +5725,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>2</v>
       </c>
@@ -5402,7 +5733,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>2</v>
       </c>
@@ -5410,7 +5741,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>2</v>
       </c>
@@ -5418,7 +5749,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>2</v>
       </c>
@@ -5426,7 +5757,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>2</v>
       </c>
@@ -5434,7 +5765,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>2</v>
       </c>
@@ -5442,7 +5773,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>2</v>
       </c>
@@ -5450,7 +5781,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>2</v>
       </c>
@@ -5458,7 +5789,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -5466,7 +5797,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>2</v>
       </c>
@@ -5474,7 +5805,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>2</v>
       </c>
@@ -5482,7 +5813,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>2</v>
       </c>
@@ -5490,7 +5821,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>2</v>
       </c>
@@ -5498,7 +5829,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>2</v>
       </c>
@@ -5506,7 +5837,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>2</v>
       </c>
@@ -5514,7 +5845,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>2</v>
       </c>
@@ -5522,7 +5853,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>2</v>
       </c>
@@ -5530,7 +5861,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>2</v>
       </c>
@@ -5538,7 +5869,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>2</v>
       </c>
@@ -5546,7 +5877,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>1</v>
       </c>
@@ -5557,7 +5888,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>2</v>
       </c>
@@ -5565,7 +5896,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>2</v>
       </c>
@@ -5573,7 +5904,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>2</v>
       </c>
@@ -5584,7 +5915,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>2</v>
       </c>
@@ -5592,7 +5923,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>2</v>
       </c>
@@ -5600,7 +5931,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>2</v>
       </c>
@@ -5608,7 +5939,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>2</v>
       </c>
@@ -5616,7 +5947,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>2</v>
       </c>
@@ -5624,7 +5955,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>2</v>
       </c>
@@ -5632,7 +5963,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>2</v>
       </c>
@@ -5640,7 +5971,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>2</v>
       </c>
@@ -5648,7 +5979,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>2</v>
       </c>
@@ -5656,7 +5987,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>2</v>
       </c>
@@ -5664,7 +5995,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>2</v>
       </c>
@@ -5672,7 +6003,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>2</v>
       </c>
@@ -5680,7 +6011,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>2</v>
       </c>
@@ -5688,7 +6019,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>2</v>
       </c>
@@ -5696,7 +6027,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>2</v>
       </c>
@@ -5704,7 +6035,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -5712,7 +6043,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>1</v>
       </c>
@@ -5723,7 +6054,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>2</v>
       </c>
@@ -5731,7 +6062,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>2</v>
       </c>
@@ -5739,7 +6070,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>2</v>
       </c>
@@ -5747,7 +6078,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>1</v>
       </c>
@@ -5758,7 +6089,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>2</v>
       </c>
@@ -5766,7 +6097,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>2</v>
       </c>
@@ -5774,7 +6105,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>2</v>
       </c>
@@ -5782,7 +6113,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>2</v>
       </c>
@@ -5790,7 +6121,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>1</v>
       </c>
@@ -5804,7 +6135,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>2</v>
       </c>
@@ -5812,7 +6143,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>2</v>
       </c>
@@ -5820,7 +6151,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>2</v>
       </c>
@@ -5828,7 +6159,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>2</v>
       </c>
@@ -5836,7 +6167,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>2</v>
       </c>
@@ -5844,7 +6175,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>2</v>
       </c>
@@ -5852,7 +6183,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -5866,7 +6197,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>2</v>
       </c>
@@ -5874,7 +6205,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>2</v>
       </c>
@@ -5882,7 +6213,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>2</v>
       </c>
@@ -5890,7 +6221,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>2</v>
       </c>
@@ -5898,7 +6229,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>2</v>
       </c>
@@ -5906,7 +6237,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>2</v>
       </c>
@@ -5914,7 +6245,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>2</v>
       </c>
@@ -5922,7 +6253,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>2</v>
       </c>
@@ -5930,7 +6261,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -5938,7 +6269,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>2</v>
       </c>
@@ -5946,7 +6277,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>2</v>
       </c>
@@ -5954,7 +6285,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>2</v>
       </c>
@@ -5962,7 +6293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>1</v>
       </c>
@@ -5973,7 +6304,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>2</v>
       </c>
@@ -5981,7 +6312,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>2</v>
       </c>
@@ -5989,7 +6320,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>2</v>
       </c>
@@ -5997,7 +6328,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>2</v>
       </c>
@@ -6005,7 +6336,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>2</v>
       </c>
@@ -6013,7 +6344,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>2</v>
       </c>
@@ -6021,7 +6352,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>2</v>
       </c>
@@ -6029,7 +6360,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>1</v>
       </c>
@@ -6040,7 +6371,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>2</v>
       </c>
@@ -6048,7 +6379,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>2</v>
       </c>
@@ -6056,7 +6387,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>1</v>
       </c>
@@ -6067,7 +6398,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>2</v>
       </c>
@@ -6075,7 +6406,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>2</v>
       </c>
@@ -6083,7 +6414,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>2</v>
       </c>
@@ -6091,7 +6422,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>1</v>
       </c>
@@ -6102,7 +6433,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>2</v>
       </c>
@@ -6114,7 +6445,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>2</v>
       </c>
@@ -6123,7 +6454,7 @@
       </c>
       <c r="C429" s="3"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>2</v>
       </c>
@@ -6131,7 +6462,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>2</v>
       </c>
@@ -6139,7 +6470,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>2</v>
       </c>
@@ -6147,7 +6478,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>2</v>
       </c>
@@ -6155,7 +6486,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>2</v>
       </c>
@@ -6163,7 +6494,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>2</v>
       </c>
@@ -6171,7 +6502,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>2</v>
       </c>
@@ -6179,7 +6510,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>2</v>
       </c>
@@ -6187,7 +6518,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>2</v>
       </c>
@@ -6195,7 +6526,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>2</v>
       </c>
@@ -6203,7 +6534,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>2</v>
       </c>
@@ -6211,7 +6542,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>2</v>
       </c>
@@ -6219,7 +6550,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>2</v>
       </c>
@@ -6227,7 +6558,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>2</v>
       </c>
@@ -6235,7 +6566,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>2</v>
       </c>
@@ -6243,7 +6574,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>2</v>
       </c>
@@ -6251,7 +6582,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>2</v>
       </c>
@@ -6259,7 +6590,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>2</v>
       </c>
@@ -6267,7 +6598,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>2</v>
       </c>
@@ -6275,7 +6606,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>2</v>
       </c>
@@ -6283,7 +6614,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>2</v>
       </c>
@@ -6291,7 +6622,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>2</v>
       </c>
@@ -6299,7 +6630,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>2</v>
       </c>
@@ -6307,7 +6638,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>2</v>
       </c>
@@ -6315,7 +6646,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>2</v>
       </c>
@@ -6323,7 +6654,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>2</v>
       </c>
@@ -6331,7 +6662,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>1</v>
       </c>
@@ -6342,7 +6673,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>2</v>
       </c>
@@ -6350,7 +6681,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>2</v>
       </c>
@@ -6358,7 +6689,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>2</v>
       </c>
@@ -6366,7 +6697,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>2</v>
       </c>
@@ -6374,7 +6705,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>2</v>
       </c>
@@ -6382,7 +6713,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>2</v>
       </c>
@@ -6390,7 +6721,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>2</v>
       </c>
@@ -6398,7 +6729,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>1</v>
       </c>
@@ -6409,7 +6740,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>1</v>
       </c>
@@ -6420,7 +6751,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>2</v>
       </c>
@@ -6428,7 +6759,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>2</v>
       </c>
@@ -6436,7 +6767,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>2</v>
       </c>
@@ -6447,7 +6778,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>2</v>
       </c>
@@ -6455,7 +6786,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>2</v>
       </c>
@@ -6463,7 +6794,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>2</v>
       </c>
@@ -6471,7 +6802,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>2</v>
       </c>
@@ -6479,7 +6810,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>2</v>
       </c>
@@ -6487,7 +6818,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>2</v>
       </c>
@@ -6495,7 +6826,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>2</v>
       </c>
@@ -6503,7 +6834,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>2</v>
       </c>
@@ -6511,7 +6842,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>2</v>
       </c>
@@ -6519,7 +6850,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>2</v>
       </c>
@@ -6527,7 +6858,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>2</v>
       </c>
@@ -6535,7 +6866,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>2</v>
       </c>
@@ -6543,7 +6874,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>2</v>
       </c>
@@ -6551,7 +6882,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>2</v>
       </c>
@@ -6559,7 +6890,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>2</v>
       </c>
@@ -6567,7 +6898,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>2</v>
       </c>
@@ -6575,7 +6906,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>1</v>
       </c>
@@ -6586,7 +6917,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>2</v>
       </c>
@@ -6594,7 +6925,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -6602,7 +6933,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>2</v>
       </c>
@@ -6610,7 +6941,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>2</v>
       </c>
@@ -6618,7 +6949,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>2</v>
       </c>
@@ -6626,7 +6957,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>2</v>
       </c>
@@ -6634,7 +6965,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>2</v>
       </c>
@@ -6642,7 +6973,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>2</v>
       </c>
@@ -6650,7 +6981,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>2</v>
       </c>
@@ -6658,7 +6989,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>2</v>
       </c>
@@ -6666,7 +6997,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>2</v>
       </c>
@@ -6674,7 +7005,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>1</v>
       </c>
@@ -6685,7 +7016,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>2</v>
       </c>
@@ -6693,7 +7024,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>2</v>
       </c>
@@ -6701,7 +7032,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>2</v>
       </c>
@@ -6709,7 +7040,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>2</v>
       </c>
@@ -6717,7 +7048,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>2</v>
       </c>
@@ -6725,7 +7056,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>2</v>
       </c>
@@ -6733,7 +7064,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>2</v>
       </c>
@@ -6741,7 +7072,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>2</v>
       </c>
@@ -6749,7 +7080,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>2</v>
       </c>
@@ -6757,7 +7088,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>2</v>
       </c>
@@ -6765,7 +7096,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>2</v>
       </c>
@@ -6773,7 +7104,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>1</v>
       </c>
@@ -6784,7 +7115,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>2</v>
       </c>
@@ -6792,7 +7123,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>2</v>
       </c>
@@ -6800,7 +7131,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>2</v>
       </c>
@@ -6808,7 +7139,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>2</v>
       </c>
@@ -6816,7 +7147,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>2</v>
       </c>
@@ -6824,7 +7155,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>2</v>
       </c>
@@ -6832,7 +7163,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>2</v>
       </c>
@@ -6840,7 +7171,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>2</v>
       </c>
@@ -6848,7 +7179,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>2</v>
       </c>
@@ -6856,7 +7187,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>2</v>
       </c>
@@ -6864,7 +7195,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>2</v>
       </c>
@@ -6872,7 +7203,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>2</v>
       </c>
@@ -6880,7 +7211,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>2</v>
       </c>
@@ -6888,7 +7219,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>2</v>
       </c>
@@ -6896,7 +7227,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>2</v>
       </c>
@@ -6904,7 +7235,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>2</v>
       </c>
@@ -6912,7 +7243,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>2</v>
       </c>
@@ -6920,7 +7251,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>2</v>
       </c>
@@ -6928,7 +7259,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>2</v>
       </c>
@@ -6936,7 +7267,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>2</v>
       </c>
@@ -6944,7 +7275,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>2</v>
       </c>
@@ -6952,7 +7283,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>2</v>
       </c>
@@ -6960,7 +7291,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>2</v>
       </c>
@@ -6968,7 +7299,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>2</v>
       </c>
@@ -6976,7 +7307,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>2</v>
       </c>
@@ -6984,7 +7315,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>2</v>
       </c>
@@ -6992,7 +7323,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>2</v>
       </c>
@@ -7000,7 +7331,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>2</v>
       </c>
@@ -7008,7 +7339,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>2</v>
       </c>
@@ -7016,7 +7347,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>2</v>
       </c>
@@ -7024,7 +7355,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>2</v>
       </c>
@@ -7035,7 +7366,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>2</v>
       </c>
@@ -7043,7 +7374,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>2</v>
       </c>
@@ -7051,7 +7382,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>2</v>
       </c>
@@ -7059,7 +7390,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>2</v>
       </c>
@@ -7067,7 +7398,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>2</v>
       </c>
@@ -7075,7 +7406,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -7083,7 +7414,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>2</v>
       </c>
@@ -7091,7 +7422,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>1</v>
       </c>
@@ -7102,7 +7433,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>2</v>
       </c>
@@ -7110,7 +7441,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>2</v>
       </c>
@@ -7118,7 +7449,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>2</v>
       </c>
@@ -7126,7 +7457,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>2</v>
       </c>
@@ -7134,7 +7465,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>2</v>
       </c>
@@ -7142,7 +7473,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>2</v>
       </c>
@@ -7150,7 +7481,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>2</v>
       </c>
@@ -7158,7 +7489,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>2</v>
       </c>
@@ -7166,7 +7497,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>2</v>
       </c>
@@ -7174,7 +7505,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>2</v>
       </c>
@@ -7182,7 +7513,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>2</v>
       </c>
@@ -7190,12 +7521,640 @@
         <v>604</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>2</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>2</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>2</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>2</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>2</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>2</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>2</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>2</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>2</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>2</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>2</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>2</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>2</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>2</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>2</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>2</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>2</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>2</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>2</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>2</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>2</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>2</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>2</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>2</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>2</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>2</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>2</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>2</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>2</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>2</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>2</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>2</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>2</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>2</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>2</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>2</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>2</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>2</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>2</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>2</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>2</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>2</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>2</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>2</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>2</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>2</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>2</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>2</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>2</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>2</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>2</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>2</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>2</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>2</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>2</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>1</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>2</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>2</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>2</v>
+      </c>
+      <c r="B618" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>2</v>
+      </c>
+      <c r="B619" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>2</v>
+      </c>
+      <c r="B620" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>2</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>2</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>2</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>2</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>2</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>2</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>2</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>2</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>2</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>2</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>2</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>1</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>2</v>
+      </c>
+      <c r="B633" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>2</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>2</v>
+      </c>
+      <c r="B635" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>2</v>
+      </c>
+      <c r="B636" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>2</v>
+      </c>
+      <c r="B637" s="3" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
